--- a/data/Billar_BATS_sample_Info.xlsx
+++ b/data/Billar_BATS_sample_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bentemperton/PycharmProjects/AE1712-viromes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/b_temperton_exeter_ac_uk/Documents/current projects/BIOS-SCOPE/manuscripts/AE1712-viromes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC36E9A-55AD-BC42-9389-3D5E02FA6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{5CC36E9A-55AD-BC42-9389-3D5E02FA6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3823DDCE-32ED-AA42-9DE1-D6161B10B0B4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="42500" windowHeight="20460" xr2:uid="{896EAB3E-7A18-4237-B67C-5CED595EF30C}"/>
   </bookViews>
@@ -1192,6 +1192,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
